--- a/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>37300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29437</v>
+        <v>28230</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46371</v>
+        <v>46435</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4747667160070608</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3746932134968711</v>
+        <v>0.3593289987709371</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5902288004191246</v>
+        <v>0.5910473376028468</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -764,19 +764,19 @@
         <v>49774</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40552</v>
+        <v>40335</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58439</v>
+        <v>59472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5668976284288361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4618648379168342</v>
+        <v>0.4593855871379188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6655809553538754</v>
+        <v>0.6773477400390489</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>83</v>
@@ -785,19 +785,19 @@
         <v>87073</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72389</v>
+        <v>73700</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>99938</v>
+        <v>98953</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5233899078743499</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4351241488771648</v>
+        <v>0.4430030975394229</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6007166943939548</v>
+        <v>0.594795315040631</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>17035</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10948</v>
+        <v>10248</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25295</v>
+        <v>25012</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2168311552949062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1393564026370439</v>
+        <v>0.1304426705432076</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3219630631919371</v>
+        <v>0.3183593183513634</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -835,19 +835,19 @@
         <v>15042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9320</v>
+        <v>8185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23298</v>
+        <v>22747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1713136596740547</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1061513776769055</v>
+        <v>0.09322668502742425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.265349507137063</v>
+        <v>0.2590693718090917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>32</v>
@@ -856,19 +856,19 @@
         <v>32076</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23005</v>
+        <v>22601</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42688</v>
+        <v>42625</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1928087521219179</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.138283479959201</v>
+        <v>0.1358543112755293</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2565930799154439</v>
+        <v>0.2562159085763983</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>24229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16348</v>
+        <v>16526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32404</v>
+        <v>34330</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.308402128698033</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2080866280338942</v>
+        <v>0.2103467668916848</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4124580643787844</v>
+        <v>0.4369722391184955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -906,19 +906,19 @@
         <v>22985</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15751</v>
+        <v>15713</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31878</v>
+        <v>31561</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2617887118971093</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1793995460383319</v>
+        <v>0.1789565795908577</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3630699471846842</v>
+        <v>0.3594589349381047</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -927,19 +927,19 @@
         <v>47214</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36106</v>
+        <v>36060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59166</v>
+        <v>59806</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2838013400037321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2170285132951444</v>
+        <v>0.2167541576716527</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.355641576619915</v>
+        <v>0.3594917034636577</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>226264</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>208512</v>
+        <v>207291</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247751</v>
+        <v>245677</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5969010085786142</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.550069961596248</v>
+        <v>0.5468477544300336</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.653584437468692</v>
+        <v>0.6481141428307239</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>144</v>
@@ -1052,19 +1052,19 @@
         <v>151054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>132619</v>
+        <v>133548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>167136</v>
+        <v>167564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5514266927463753</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4841295085845816</v>
+        <v>0.4875190562142367</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6101332970978628</v>
+        <v>0.6116959303900091</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>362</v>
@@ -1073,19 +1073,19 @@
         <v>377318</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>352354</v>
+        <v>353365</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>403540</v>
+        <v>404780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5778245045028624</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5395938773674904</v>
+        <v>0.5411421598343983</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6179809818412297</v>
+        <v>0.6198794531662859</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>58531</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46115</v>
+        <v>44591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>74092</v>
+        <v>73651</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1544079295659914</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1216554050163777</v>
+        <v>0.1176330554209565</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.195459550675459</v>
+        <v>0.1942956473855239</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>56</v>
@@ -1123,19 +1123,19 @@
         <v>64125</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>50549</v>
+        <v>51434</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>80846</v>
+        <v>79778</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2340917203125785</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1845316705097912</v>
+        <v>0.1877610661958824</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2951317947272033</v>
+        <v>0.2912303327036473</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>114</v>
@@ -1144,19 +1144,19 @@
         <v>122656</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>102777</v>
+        <v>100625</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>145268</v>
+        <v>143744</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1878353298716154</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1573926378171026</v>
+        <v>0.1540965071611018</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2224625818315479</v>
+        <v>0.2201295125167142</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>94270</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76425</v>
+        <v>76819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112027</v>
+        <v>111868</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2486910618553944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.20161561122177</v>
+        <v>0.2026545184145181</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2955351968697977</v>
+        <v>0.2951143022390698</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -1194,19 +1194,19 @@
         <v>58754</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45652</v>
+        <v>47024</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>74100</v>
+        <v>74640</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2144815869410461</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1666550370895331</v>
+        <v>0.1716624294939174</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2705043698754899</v>
+        <v>0.2724758557905698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>143</v>
@@ -1215,19 +1215,19 @@
         <v>153024</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>131780</v>
+        <v>131914</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>173920</v>
+        <v>177794</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2343401656255222</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.201807465405586</v>
+        <v>0.202013414353261</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2663413106162058</v>
+        <v>0.272273887738405</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>248820</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>227336</v>
+        <v>228461</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>267550</v>
+        <v>270095</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6014833174108715</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.549549220945697</v>
+        <v>0.5522686432344808</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6467608077708039</v>
+        <v>0.6529121381939195</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>150</v>
@@ -1340,19 +1340,19 @@
         <v>156341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>139872</v>
+        <v>139708</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>172559</v>
+        <v>172742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5650307189896431</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5055113216441754</v>
+        <v>0.5049176598424844</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6236441968525821</v>
+        <v>0.6243060937476678</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>395</v>
@@ -1361,19 +1361,19 @@
         <v>405161</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>379292</v>
+        <v>378504</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>432744</v>
+        <v>432046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5868734386593584</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5494030463461667</v>
+        <v>0.5482610657296562</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6268270115408496</v>
+        <v>0.625815752512253</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>72096</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57707</v>
+        <v>57690</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89078</v>
+        <v>91655</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1742803617984039</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1394973999677069</v>
+        <v>0.1394567872093468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2153322192432733</v>
+        <v>0.2215612368668242</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -1411,19 +1411,19 @@
         <v>60008</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>47435</v>
+        <v>47670</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74059</v>
+        <v>74652</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2168757302654748</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.171434425131183</v>
+        <v>0.1722849086076987</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2676546759121722</v>
+        <v>0.2697995384438462</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1432,19 +1432,19 @@
         <v>132104</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>112055</v>
+        <v>111637</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155248</v>
+        <v>153602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1913522084055727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1623110217465654</v>
+        <v>0.1617054807571047</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2248765778751427</v>
+        <v>0.2224917614083872</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>92761</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75585</v>
+        <v>76396</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111129</v>
+        <v>112361</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2242363207907246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1827148530962301</v>
+        <v>0.184675121601079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2686362807734692</v>
+        <v>0.2716159746886045</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -1482,19 +1482,19 @@
         <v>60345</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47281</v>
+        <v>46770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75406</v>
+        <v>76492</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2180935507448821</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1708783866104347</v>
+        <v>0.1690314717896615</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2725247555473789</v>
+        <v>0.2764504282434349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -1503,19 +1503,19 @@
         <v>153107</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>132025</v>
+        <v>130462</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>176169</v>
+        <v>178869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.221774352935069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1912373627827878</v>
+        <v>0.1889736065489632</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2551798522890916</v>
+        <v>0.2590906337565896</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>208078</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185216</v>
+        <v>188801</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>228445</v>
+        <v>227762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5728138909844788</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5098785102140884</v>
+        <v>0.5197478419336631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6288836857303498</v>
+        <v>0.627003903055025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>95</v>
@@ -1628,19 +1628,19 @@
         <v>112652</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96205</v>
+        <v>98495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>127827</v>
+        <v>130073</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5147213857822277</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4395738616531811</v>
+        <v>0.4500346404904931</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5840602816936461</v>
+        <v>0.5943208762792799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>282</v>
@@ -1649,19 +1649,19 @@
         <v>320730</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>295260</v>
+        <v>295395</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>346449</v>
+        <v>347023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5509726194663507</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5072191941799014</v>
+        <v>0.507450998410337</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5951546299047324</v>
+        <v>0.596139857497301</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>87173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71249</v>
+        <v>70468</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105769</v>
+        <v>104195</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2399779130195811</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1961413241672188</v>
+        <v>0.1939899625389086</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2911701736611756</v>
+        <v>0.2868370771880655</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>41</v>
@@ -1699,19 +1699,19 @@
         <v>45577</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34600</v>
+        <v>33385</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60708</v>
+        <v>58922</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2082475922595308</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1580940073463524</v>
+        <v>0.1525394049618563</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2773830050583625</v>
+        <v>0.2692234767138226</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>115</v>
@@ -1720,19 +1720,19 @@
         <v>132750</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>111340</v>
+        <v>110735</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154384</v>
+        <v>157894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2280481374200482</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1912670199708769</v>
+        <v>0.1902277794108831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2652112751644783</v>
+        <v>0.2712420270706059</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>68004</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53457</v>
+        <v>53696</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84569</v>
+        <v>85506</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1872081959959401</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1471622845630877</v>
+        <v>0.1478201199457321</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2328088747927335</v>
+        <v>0.2353889564721233</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -1770,19 +1770,19 @@
         <v>60631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>47352</v>
+        <v>46682</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75268</v>
+        <v>74392</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2770310219582416</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2163558590453195</v>
+        <v>0.2132981488944053</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3439084640011855</v>
+        <v>0.3399084289511944</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>112</v>
@@ -1791,19 +1791,19 @@
         <v>128636</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>108405</v>
+        <v>108664</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>150160</v>
+        <v>149704</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2209792431136012</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1862257256717632</v>
+        <v>0.1866699010406103</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2579551203731522</v>
+        <v>0.2571721036293945</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>89546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76204</v>
+        <v>76348</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102125</v>
+        <v>101745</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5767509511437943</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4908178897766242</v>
+        <v>0.4917450224170846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6577728544974161</v>
+        <v>0.6553240772820883</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1916,19 +1916,19 @@
         <v>33259</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24859</v>
+        <v>24949</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42716</v>
+        <v>41504</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4844145263899111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3620631960264394</v>
+        <v>0.3633773145261064</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6221509538243921</v>
+        <v>0.6045005196058608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1937,19 +1937,19 @@
         <v>122805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106150</v>
+        <v>107473</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>137080</v>
+        <v>137258</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5484387068477279</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.474058509393237</v>
+        <v>0.4799679325576161</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6121896636391768</v>
+        <v>0.6129861493898664</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>32405</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22418</v>
+        <v>23616</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>43530</v>
+        <v>42538</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2087159070408202</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1443914271587439</v>
+        <v>0.1521088249831322</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2803712055155828</v>
+        <v>0.2739788967541442</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -1987,19 +1987,19 @@
         <v>19990</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12750</v>
+        <v>13114</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>28707</v>
+        <v>29119</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2911486243859269</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1857040904766783</v>
+        <v>0.191007864788426</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.418122884353664</v>
+        <v>0.4241162194756771</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -2008,19 +2008,19 @@
         <v>52395</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>40566</v>
+        <v>40807</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>65984</v>
+        <v>66881</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2339914712364665</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1811670305099291</v>
+        <v>0.1822396095007252</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2946811088218109</v>
+        <v>0.2986866016879152</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>33308</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23492</v>
+        <v>23299</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44219</v>
+        <v>44866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2145331418153856</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1513082808150016</v>
+        <v>0.1500661538057979</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.284809395635507</v>
+        <v>0.2889720126251314</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -2058,19 +2058,19 @@
         <v>15409</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>9373</v>
+        <v>9168</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22844</v>
+        <v>22915</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.224436849224162</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1365168189794523</v>
+        <v>0.1335248137936336</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3327254536130224</v>
+        <v>0.3337547425680999</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -2079,19 +2079,19 @@
         <v>48718</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>36640</v>
+        <v>36428</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62114</v>
+        <v>61762</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2175698219158055</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1636323265450919</v>
+        <v>0.1626855300131569</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2773970786295402</v>
+        <v>0.2758263201256057</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>810007</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>772590</v>
+        <v>767539</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>844490</v>
+        <v>845899</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5828143100462408</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5558919396994488</v>
+        <v>0.5522576416574617</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6076253407561226</v>
+        <v>0.6086394946735727</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>465</v>
@@ -2204,19 +2204,19 @@
         <v>503080</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>471463</v>
+        <v>474003</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>533551</v>
+        <v>533910</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5433142340123405</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5091686102007312</v>
+        <v>0.5119112018312167</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5762217168479726</v>
+        <v>0.5766099618323495</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1233</v>
@@ -2225,19 +2225,19 @@
         <v>1313087</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1260925</v>
+        <v>1260190</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1358322</v>
+        <v>1359877</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5670204211383862</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5444954630452787</v>
+        <v>0.5441783341445088</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5865539331078564</v>
+        <v>0.5872251502165156</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>267240</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>239434</v>
+        <v>238738</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>303176</v>
+        <v>298992</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1922837252580313</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1722772927687312</v>
+        <v>0.171776257479993</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2181402377455117</v>
+        <v>0.2151299431834406</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>188</v>
@@ -2275,19 +2275,19 @@
         <v>204742</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178590</v>
+        <v>177835</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>230615</v>
+        <v>231018</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2211164464912007</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1928732822431691</v>
+        <v>0.1920579658544087</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2490589983567557</v>
+        <v>0.2494937128371215</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>438</v>
@@ -2296,19 +2296,19 @@
         <v>471982</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432499</v>
+        <v>431482</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>514061</v>
+        <v>513483</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2038123308150686</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1867628488158641</v>
+        <v>0.1863236682921159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2219831909899737</v>
+        <v>0.2217333644599714</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>312573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>281758</v>
+        <v>278950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>344247</v>
+        <v>347345</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2249019646957279</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2027296840138433</v>
+        <v>0.2007095625083857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2476916184314259</v>
+        <v>0.2499208745971675</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>201</v>
@@ -2346,19 +2346,19 @@
         <v>218125</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>192378</v>
+        <v>193261</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>248534</v>
+        <v>245362</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2355693194964588</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2077634145738645</v>
+        <v>0.2087168315904143</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2684110291502007</v>
+        <v>0.2649854549762348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>488</v>
@@ -2367,19 +2367,19 @@
         <v>530698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>490943</v>
+        <v>491757</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>572871</v>
+        <v>577192</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2291672480465452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2120000228384814</v>
+        <v>0.2123517700246179</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2473785216602129</v>
+        <v>0.2492444326575552</v>
       </c>
     </row>
     <row r="27">
@@ -2712,19 +2712,19 @@
         <v>38362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29576</v>
+        <v>29414</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47155</v>
+        <v>46693</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4849318276324103</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3738667844893617</v>
+        <v>0.3718219301533187</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.596080329771532</v>
+        <v>0.5902322520435102</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -2733,19 +2733,19 @@
         <v>52597</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>43197</v>
+        <v>43708</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60940</v>
+        <v>61999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5726056813599442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.470272307968603</v>
+        <v>0.4758389013776771</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6634392802261564</v>
+        <v>0.674969768626035</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>88</v>
@@ -2754,19 +2754,19 @@
         <v>90959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77923</v>
+        <v>78539</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>103840</v>
+        <v>102434</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5320368634633716</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4557842002891342</v>
+        <v>0.459391692218398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6073803355065652</v>
+        <v>0.5991531179679513</v>
       </c>
     </row>
     <row r="5">
@@ -2783,19 +2783,19 @@
         <v>19769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12683</v>
+        <v>12657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28575</v>
+        <v>27992</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2499012733021106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1603174836622975</v>
+        <v>0.1599996090937156</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3612144840964212</v>
+        <v>0.3538459049870556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -2804,19 +2804,19 @@
         <v>18796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11350</v>
+        <v>12261</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27121</v>
+        <v>27397</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.204632029148545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1235630352585135</v>
+        <v>0.1334838919377388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.295257108869001</v>
+        <v>0.2982684914423684</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -2825,19 +2825,19 @@
         <v>38566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28046</v>
+        <v>28277</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>49542</v>
+        <v>50797</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2255792060353838</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1640462327119476</v>
+        <v>0.1653983833970895</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2897806657621935</v>
+        <v>0.2971231063898991</v>
       </c>
     </row>
     <row r="6">
@@ -2854,19 +2854,19 @@
         <v>20977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14273</v>
+        <v>13530</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>30040</v>
+        <v>29654</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2651668990654791</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.18041914999462</v>
+        <v>0.1710300192789179</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.379730061070705</v>
+        <v>0.3748457658266421</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2875,19 +2875,19 @@
         <v>20462</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12932</v>
+        <v>13876</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28119</v>
+        <v>28968</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2227622894915108</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1407903452040316</v>
+        <v>0.1510681850447436</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3061205861900081</v>
+        <v>0.3153631364353254</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -2896,19 +2896,19 @@
         <v>41439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31280</v>
+        <v>31404</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52329</v>
+        <v>54111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2423839305012445</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1829631080813869</v>
+        <v>0.1836892075817065</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.306083562903477</v>
+        <v>0.3165035794352682</v>
       </c>
     </row>
     <row r="7">
@@ -3000,19 +3000,19 @@
         <v>197627</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>177281</v>
+        <v>178538</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>214575</v>
+        <v>216245</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5741896967571483</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5150753845433401</v>
+        <v>0.5187261297919941</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6234296353604695</v>
+        <v>0.6282809909773657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>163</v>
@@ -3021,19 +3021,19 @@
         <v>156572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>141547</v>
+        <v>140569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>171529</v>
+        <v>172285</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5720252110583834</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5171312106679578</v>
+        <v>0.5135561747080888</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6266684971328355</v>
+        <v>0.6294289801220598</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>353</v>
@@ -3042,19 +3042,19 @@
         <v>354201</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>328319</v>
+        <v>328176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>377280</v>
+        <v>378922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5732308790766192</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5313453956730918</v>
+        <v>0.5311126077790906</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6105822207615758</v>
+        <v>0.613240248419967</v>
       </c>
     </row>
     <row r="9">
@@ -3071,19 +3071,19 @@
         <v>78224</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>62806</v>
+        <v>63344</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>94359</v>
+        <v>94383</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2272731531764055</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1824772195340353</v>
+        <v>0.1840394928230513</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2741531765137418</v>
+        <v>0.2742203173903262</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>61</v>
@@ -3092,19 +3092,19 @@
         <v>58560</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45862</v>
+        <v>45630</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72663</v>
+        <v>72114</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2139447643870206</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1675543475531894</v>
+        <v>0.1667072501356879</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2654696839616997</v>
+        <v>0.2634614681227228</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>135</v>
@@ -3113,19 +3113,19 @@
         <v>136784</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>116313</v>
+        <v>116937</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>158241</v>
+        <v>159062</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2213689816535721</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.188238039901343</v>
+        <v>0.1892482219598588</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.256094306571375</v>
+        <v>0.2574225777808831</v>
       </c>
     </row>
     <row r="10">
@@ -3142,19 +3142,19 @@
         <v>68334</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53443</v>
+        <v>53711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>84299</v>
+        <v>85122</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1985371500664463</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1552752068117919</v>
+        <v>0.1560518359278229</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2449235052473068</v>
+        <v>0.2473138885851649</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>59</v>
@@ -3163,19 +3163,19 @@
         <v>58583</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46410</v>
+        <v>45911</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73738</v>
+        <v>73185</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.214030024554596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1695536318435246</v>
+        <v>0.1677310546057106</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.26939662241711</v>
+        <v>0.267373993026071</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -3184,19 +3184,19 @@
         <v>126917</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>108261</v>
+        <v>108402</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>148100</v>
+        <v>149700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2054001392698087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1752066238286176</v>
+        <v>0.1754359854669383</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2396815145097018</v>
+        <v>0.2422719198628237</v>
       </c>
     </row>
     <row r="11">
@@ -3288,19 +3288,19 @@
         <v>258798</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>234891</v>
+        <v>237247</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>279029</v>
+        <v>280997</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.563109517470366</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5110911733263273</v>
+        <v>0.5162176607580902</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6071277316030915</v>
+        <v>0.6114104516308579</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>175</v>
@@ -3309,19 +3309,19 @@
         <v>174917</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>157200</v>
+        <v>158589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>193338</v>
+        <v>191962</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5510675661367999</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4952514397056983</v>
+        <v>0.4996295825503435</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6091033872482488</v>
+        <v>0.6047698677909118</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>420</v>
@@ -3330,19 +3330,19 @@
         <v>433714</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>405390</v>
+        <v>404976</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>460048</v>
+        <v>462523</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5581902472299666</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5217364594064138</v>
+        <v>0.5212033323428303</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5920821410076241</v>
+        <v>0.5952666037794421</v>
       </c>
     </row>
     <row r="13">
@@ -3359,19 +3359,19 @@
         <v>98060</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>80746</v>
+        <v>81519</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>117156</v>
+        <v>115837</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2133651421832745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1756930737939049</v>
+        <v>0.1773735016051662</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2549156259333468</v>
+        <v>0.2520459357678981</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -3380,19 +3380,19 @@
         <v>68396</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>54663</v>
+        <v>54467</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84098</v>
+        <v>84574</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2154780469193828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.172213482349333</v>
+        <v>0.1715954730051099</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2649469342481128</v>
+        <v>0.2664475724821498</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>157</v>
@@ -3401,19 +3401,19 @@
         <v>166456</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>145444</v>
+        <v>144406</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191901</v>
+        <v>191747</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2142282871255866</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1871861402427465</v>
+        <v>0.1858506104427571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2469765588460507</v>
+        <v>0.246778629758408</v>
       </c>
     </row>
     <row r="14">
@@ -3430,19 +3430,19 @@
         <v>102730</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86625</v>
+        <v>86037</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121912</v>
+        <v>121020</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2235253403463595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1884833832461996</v>
+        <v>0.1872044243935952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2652634731827599</v>
+        <v>0.2633237649389261</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>78</v>
@@ -3451,19 +3451,19 @@
         <v>74102</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>61162</v>
+        <v>60299</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91018</v>
+        <v>89918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2334543869438173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1926877764143815</v>
+        <v>0.1899705822444399</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2867495633141655</v>
+        <v>0.2832837230947349</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -3472,19 +3472,19 @@
         <v>176831</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155268</v>
+        <v>154709</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>204030</v>
+        <v>200086</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2275814656444468</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1998299306787984</v>
+        <v>0.1991104241436265</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2625866698218315</v>
+        <v>0.2575102361600905</v>
       </c>
     </row>
     <row r="15">
@@ -3576,19 +3576,19 @@
         <v>194586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173605</v>
+        <v>174066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>214265</v>
+        <v>214832</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5291576509445467</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.472102954817247</v>
+        <v>0.4733556929416247</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5826737931949726</v>
+        <v>0.5842134298620515</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>120</v>
@@ -3597,19 +3597,19 @@
         <v>132141</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>116246</v>
+        <v>116497</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>149032</v>
+        <v>147412</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5435265980193243</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4781447932592254</v>
+        <v>0.4791781073802373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6130025351366624</v>
+        <v>0.6063400661621714</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>297</v>
@@ -3618,19 +3618,19 @@
         <v>326727</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>299642</v>
+        <v>301083</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352120</v>
+        <v>350643</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5348765211709279</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4905365925481464</v>
+        <v>0.4928945567338224</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5764468184159844</v>
+        <v>0.5740282137133136</v>
       </c>
     </row>
     <row r="17">
@@ -3647,19 +3647,19 @@
         <v>86325</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>70304</v>
+        <v>69118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104755</v>
+        <v>104627</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2347529404800218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.191184036000965</v>
+        <v>0.1879584615838389</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2848719844998187</v>
+        <v>0.2845229528468499</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>53</v>
@@ -3668,19 +3668,19 @@
         <v>56043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43393</v>
+        <v>43914</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>69523</v>
+        <v>72038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2305193429456584</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1784872869024717</v>
+        <v>0.1806287580951632</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2859637410846187</v>
+        <v>0.2963082863068466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>128</v>
@@ -3689,19 +3689,19 @@
         <v>142369</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121291</v>
+        <v>121771</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>166913</v>
+        <v>166291</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2330679600312978</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1985620834599698</v>
+        <v>0.1993482774021664</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2732482110458302</v>
+        <v>0.272230776278882</v>
       </c>
     </row>
     <row r="18">
@@ -3718,19 +3718,19 @@
         <v>86817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71007</v>
+        <v>69981</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>105718</v>
+        <v>103260</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2360894085754314</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1930972989463899</v>
+        <v>0.1903056896273007</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2874892471609278</v>
+        <v>0.2808064487834773</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -3739,19 +3739,19 @@
         <v>54933</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41347</v>
+        <v>42167</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67802</v>
+        <v>69493</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2259540590350172</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1700688775838181</v>
+        <v>0.1734405353390156</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2788857133837819</v>
+        <v>0.2858388061598597</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>129</v>
@@ -3760,19 +3760,19 @@
         <v>141750</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>122621</v>
+        <v>119276</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>165874</v>
+        <v>162370</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2320555187977744</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2007401125258636</v>
+        <v>0.1952643119323381</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2715477452769646</v>
+        <v>0.2658119369309567</v>
       </c>
     </row>
     <row r="19">
@@ -3864,19 +3864,19 @@
         <v>88556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>74710</v>
+        <v>74112</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>102641</v>
+        <v>102077</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5343495499699352</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4508038649656156</v>
+        <v>0.4471983889425242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6193388747180371</v>
+        <v>0.6159385106050698</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -3885,19 +3885,19 @@
         <v>53028</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>42319</v>
+        <v>41858</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65315</v>
+        <v>64993</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5008317456820948</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3996881685449549</v>
+        <v>0.3953362527738892</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6168837427804416</v>
+        <v>0.6138417923459352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>125</v>
@@ -3906,19 +3906,19 @@
         <v>141583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>123349</v>
+        <v>123225</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158402</v>
+        <v>158973</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5212834318898306</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4541481679238972</v>
+        <v>0.4536929755643748</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5832058245425437</v>
+        <v>0.5853097807031641</v>
       </c>
     </row>
     <row r="21">
@@ -3935,19 +3935,19 @@
         <v>38276</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27755</v>
+        <v>26562</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>52554</v>
+        <v>50583</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2309618848867382</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1674775721967051</v>
+        <v>0.1602764051677206</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3171119596642795</v>
+        <v>0.3052179078588171</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>19</v>
@@ -3956,19 +3956,19 @@
         <v>23355</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14149</v>
+        <v>14590</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33342</v>
+        <v>33184</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2205855806402873</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1336341553939205</v>
+        <v>0.137795100790624</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3149072507558167</v>
+        <v>0.3134153691862154</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>53</v>
@@ -3977,19 +3977,19 @@
         <v>61632</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>48318</v>
+        <v>48041</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>78804</v>
+        <v>76885</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2269169296935246</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1778969759999077</v>
+        <v>0.1768766181107096</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2901437101280407</v>
+        <v>0.2830749389456623</v>
       </c>
     </row>
     <row r="22">
@@ -4006,19 +4006,19 @@
         <v>38894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28257</v>
+        <v>28720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53128</v>
+        <v>52651</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2346885651433266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1705014688950159</v>
+        <v>0.1732993448312674</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3205778020414506</v>
+        <v>0.3177010099836369</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>25</v>
@@ -4027,19 +4027,19 @@
         <v>29496</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20377</v>
+        <v>20668</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39896</v>
+        <v>40968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2785826736776179</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1924551886376975</v>
+        <v>0.1951996339144811</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3768068606335915</v>
+        <v>0.3869312541571897</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -4048,19 +4048,19 @@
         <v>68390</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>53338</v>
+        <v>54871</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84091</v>
+        <v>84691</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2517996384166448</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1963808262925213</v>
+        <v>0.202026276516004</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3096093260728468</v>
+        <v>0.311818291652028</v>
       </c>
     </row>
     <row r="23">
@@ -4152,19 +4152,19 @@
         <v>777931</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>740851</v>
+        <v>740255</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>821130</v>
+        <v>816648</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5492552692122116</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5230754902832964</v>
+        <v>0.5226546970597004</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5797559278839949</v>
+        <v>0.576591863405193</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>556</v>
@@ -4173,19 +4173,19 @@
         <v>569254</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>535289</v>
+        <v>538748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>601307</v>
+        <v>601143</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5516127117179139</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5187002024252619</v>
+        <v>0.5220517387985596</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5826716513363942</v>
+        <v>0.5825129860431842</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1283</v>
@@ -4194,19 +4194,19 @@
         <v>1347184</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1293315</v>
+        <v>1298625</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1398208</v>
+        <v>1396241</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5502489460869632</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.528246407919125</v>
+        <v>0.5304153621987521</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5710893755946692</v>
+        <v>0.5702857378981977</v>
       </c>
     </row>
     <row r="25">
@@ -4223,19 +4223,19 @@
         <v>320655</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>288182</v>
+        <v>288422</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>354836</v>
+        <v>353110</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2263976476487986</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2034701630131225</v>
+        <v>0.2036393569267508</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.250530997247049</v>
+        <v>0.2493121224393628</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>219</v>
@@ -4244,19 +4244,19 @@
         <v>225151</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198032</v>
+        <v>198252</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>253423</v>
+        <v>252087</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2181734870270256</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1918948029945922</v>
+        <v>0.1921084294846432</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2455694577608363</v>
+        <v>0.2442745653227865</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>511</v>
@@ -4265,19 +4265,19 @@
         <v>545806</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>505932</v>
+        <v>506133</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>597169</v>
+        <v>585149</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2229311121111</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2066446508964417</v>
+        <v>0.2067269119472973</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2439100201986303</v>
+        <v>0.2390003754172252</v>
       </c>
     </row>
     <row r="26">
@@ -4294,19 +4294,19 @@
         <v>317751</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>287154</v>
+        <v>288425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>352645</v>
+        <v>352179</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2243470831389898</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.202743993763595</v>
+        <v>0.2036417663168986</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2489837949415027</v>
+        <v>0.2486548392917711</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>233</v>
@@ -4315,19 +4315,19 @@
         <v>237576</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>211626</v>
+        <v>211352</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>267271</v>
+        <v>266654</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2302138012550605</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.205067052927574</v>
+        <v>0.2048017500023826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2589877714230741</v>
+        <v>0.2583904854691314</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>531</v>
@@ -4336,19 +4336,19 @@
         <v>555327</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>516834</v>
+        <v>513878</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>598929</v>
+        <v>599546</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2268199418019368</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2110976301665004</v>
+        <v>0.2098900178802231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2446288621865067</v>
+        <v>0.2448807734461273</v>
       </c>
     </row>
     <row r="27">
@@ -4681,19 +4681,19 @@
         <v>15158</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6567</v>
+        <v>7168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23698</v>
+        <v>24041</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5035112320527744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2181323543131593</v>
+        <v>0.2380940198922687</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7871625886682102</v>
+        <v>0.7985608937766999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -4702,19 +4702,19 @@
         <v>14594</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8032</v>
+        <v>8144</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20688</v>
+        <v>20213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5519333464497606</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.303761269994486</v>
+        <v>0.3080092515602409</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7824090547561348</v>
+        <v>0.764463688546682</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -4723,19 +4723,19 @@
         <v>29751</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>18321</v>
+        <v>19037</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40705</v>
+        <v>41012</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5261535053435742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3239994289655281</v>
+        <v>0.3366747788792481</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7198726368386256</v>
+        <v>0.725294801013791</v>
       </c>
     </row>
     <row r="5">
@@ -4755,7 +4755,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14845</v>
+        <v>13278</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1439584258726453</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4930925514894073</v>
+        <v>0.4410693363782065</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -4773,19 +4773,19 @@
         <v>4806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1153</v>
+        <v>1198</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10889</v>
+        <v>10104</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1817784292227498</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0435972382580108</v>
+        <v>0.04531516818448719</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4118231725146679</v>
+        <v>0.3821365159722198</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -4794,19 +4794,19 @@
         <v>9140</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3838</v>
+        <v>3081</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20431</v>
+        <v>19015</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1616431317632523</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0678670883198552</v>
+        <v>0.05449280479706037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3613316303126708</v>
+        <v>0.336273804273238</v>
       </c>
     </row>
     <row r="6">
@@ -4823,19 +4823,19 @@
         <v>10613</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3156</v>
+        <v>3739</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20495</v>
+        <v>20808</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3525303420745802</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1048210026618723</v>
+        <v>0.1242073714411038</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6807737272476441</v>
+        <v>0.6911844368680508</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -4844,19 +4844,19 @@
         <v>7041</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2339</v>
+        <v>2407</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13597</v>
+        <v>13379</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2662882243274897</v>
+        <v>0.2662882243274896</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08845918145262362</v>
+        <v>0.09101953479700367</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5142327346253527</v>
+        <v>0.5060008304487108</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -4865,19 +4865,19 @@
         <v>17654</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8894</v>
+        <v>8092</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30531</v>
+        <v>29534</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3122033628931737</v>
+        <v>0.3122033628931736</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1572869921513938</v>
+        <v>0.143100372038635</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5399362548328341</v>
+        <v>0.522301627082149</v>
       </c>
     </row>
     <row r="7">
@@ -4969,19 +4969,19 @@
         <v>46649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32448</v>
+        <v>32961</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61728</v>
+        <v>61433</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3935288832462649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2737269824704494</v>
+        <v>0.2780522630195966</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5207336064352875</v>
+        <v>0.5182467185966372</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -4990,19 +4990,19 @@
         <v>39356</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>29418</v>
+        <v>30214</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48796</v>
+        <v>49226</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4288450192459595</v>
+        <v>0.4288450192459593</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3205557973448639</v>
+        <v>0.3292263704966356</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5317063278399067</v>
+        <v>0.5363989380662662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>65</v>
@@ -5011,19 +5011,19 @@
         <v>86005</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>66580</v>
+        <v>69360</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>102195</v>
+        <v>103805</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4089393992383459</v>
+        <v>0.4089393992383458</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3165793152200203</v>
+        <v>0.3297941222061572</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4859232177592309</v>
+        <v>0.4935769104741891</v>
       </c>
     </row>
     <row r="9">
@@ -5040,19 +5040,19 @@
         <v>43181</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>30506</v>
+        <v>30627</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>57896</v>
+        <v>59598</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.364268900082743</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2573441254106266</v>
+        <v>0.2583626962154482</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4884083211743217</v>
+        <v>0.5027633199324638</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>24</v>
@@ -5061,19 +5061,19 @@
         <v>24189</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16731</v>
+        <v>16371</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32882</v>
+        <v>33316</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2635733182662318</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1823152993526579</v>
+        <v>0.1783895746683865</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3582988625639766</v>
+        <v>0.3630268201102028</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>50</v>
@@ -5082,19 +5082,19 @@
         <v>67369</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51961</v>
+        <v>52418</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>85651</v>
+        <v>84211</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3203294704144278</v>
+        <v>0.3203294704144277</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2470649791409292</v>
+        <v>0.2492409104347816</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4072548732620497</v>
+        <v>0.4004088250968349</v>
       </c>
     </row>
     <row r="10">
@@ -5111,19 +5111,19 @@
         <v>28711</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18157</v>
+        <v>17372</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43870</v>
+        <v>42081</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.242202216670992</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1531739064810938</v>
+        <v>0.1465514412006028</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3700838276733587</v>
+        <v>0.3549892148028297</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -5132,19 +5132,19 @@
         <v>28227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19309</v>
+        <v>20055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38996</v>
+        <v>38945</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3075816624878086</v>
+        <v>0.3075816624878085</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2103984047161144</v>
+        <v>0.2185304471108332</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4249177896522069</v>
+        <v>0.4243686135472371</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -5153,19 +5153,19 @@
         <v>56938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42151</v>
+        <v>42875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>73485</v>
+        <v>74125</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2707311303472264</v>
+        <v>0.2707311303472263</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.200421195969591</v>
+        <v>0.2038637896165256</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3494098509958791</v>
+        <v>0.3524509290736098</v>
       </c>
     </row>
     <row r="11">
@@ -5257,19 +5257,19 @@
         <v>44816</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34479</v>
+        <v>33979</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56896</v>
+        <v>56202</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3798206040958732</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2922102120981866</v>
+        <v>0.2879750179260841</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4821972829637062</v>
+        <v>0.4763126785060381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>67</v>
@@ -5278,19 +5278,19 @@
         <v>51341</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42725</v>
+        <v>43040</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60137</v>
+        <v>60561</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4937631601508142</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4109015796759339</v>
+        <v>0.4139315917952646</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5783573114763264</v>
+        <v>0.5824374692283671</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -5299,19 +5299,19 @@
         <v>96158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>81650</v>
+        <v>82323</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>110985</v>
+        <v>110407</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.4331950384914386</v>
+        <v>0.4331950384914385</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3678390497273774</v>
+        <v>0.370871539417428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.499994198517469</v>
+        <v>0.4973888531863428</v>
       </c>
     </row>
     <row r="13">
@@ -5328,19 +5328,19 @@
         <v>35735</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25822</v>
+        <v>26781</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46651</v>
+        <v>47793</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3028584767528584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2188421250235722</v>
+        <v>0.2269696377828047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.395370801339075</v>
+        <v>0.4050514312545623</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>35</v>
@@ -5349,19 +5349,19 @@
         <v>24627</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17647</v>
+        <v>18644</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32472</v>
+        <v>32752</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2368427215714436</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1697213864388445</v>
+        <v>0.1793080646526294</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3122956001963636</v>
+        <v>0.3149867134405254</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -5370,19 +5370,19 @@
         <v>60362</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47838</v>
+        <v>48983</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>73903</v>
+        <v>73991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2719345294938103</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2155130465047757</v>
+        <v>0.2206727439500677</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3329377445334024</v>
+        <v>0.333331881468518</v>
       </c>
     </row>
     <row r="14">
@@ -5399,19 +5399,19 @@
         <v>37442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>27056</v>
+        <v>26328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48257</v>
+        <v>48042</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3173209191512683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2293043254634108</v>
+        <v>0.2231302526924256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4089848784106327</v>
+        <v>0.4071590600637428</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -5420,19 +5420,19 @@
         <v>28011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20708</v>
+        <v>20843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35928</v>
+        <v>37281</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2693941182777422</v>
+        <v>0.2693941182777423</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1991579179130173</v>
+        <v>0.2004568245261642</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3455327027871377</v>
+        <v>0.3585468352928303</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>67</v>
@@ -5441,19 +5441,19 @@
         <v>65453</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>52574</v>
+        <v>52002</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78918</v>
+        <v>78761</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2948704320147511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2368465074537925</v>
+        <v>0.2342710268016382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3555283927951819</v>
+        <v>0.354820395189994</v>
       </c>
     </row>
     <row r="15">
@@ -5545,19 +5545,19 @@
         <v>50973</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40124</v>
+        <v>39115</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62889</v>
+        <v>62397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3715992850506336</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2925058078221577</v>
+        <v>0.2851495380677232</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4584670255598532</v>
+        <v>0.4548814051745269</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -5566,19 +5566,19 @@
         <v>49805</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>41715</v>
+        <v>41111</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59148</v>
+        <v>57968</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.412452860727527</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3454610059852459</v>
+        <v>0.3404513890671465</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4898278846105448</v>
+        <v>0.4800568040436005</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -5587,19 +5587,19 @@
         <v>100778</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86505</v>
+        <v>86686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115365</v>
+        <v>115194</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3907257557701035</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3353913502791298</v>
+        <v>0.3360898897789495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4472838701303387</v>
+        <v>0.4466206059720526</v>
       </c>
     </row>
     <row r="17">
@@ -5616,19 +5616,19 @@
         <v>26342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18360</v>
+        <v>17836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36939</v>
+        <v>36192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.192039147627092</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1338481055297565</v>
+        <v>0.1300294226733443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2692860483555243</v>
+        <v>0.2638471908593896</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -5637,19 +5637,19 @@
         <v>28539</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21287</v>
+        <v>21954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>36611</v>
+        <v>36386</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.2363446421785542</v>
+        <v>0.2363446421785543</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1762860718202749</v>
+        <v>0.181809377047701</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3031878628361761</v>
+        <v>0.3013275403553221</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>71</v>
@@ -5658,19 +5658,19 @@
         <v>54882</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>44632</v>
+        <v>43028</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>68626</v>
+        <v>66425</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2127817076162649</v>
+        <v>0.212781707616265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1730413785807125</v>
+        <v>0.1668232548825618</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2660691925928751</v>
+        <v>0.2575374631759965</v>
       </c>
     </row>
     <row r="18">
@@ -5687,19 +5687,19 @@
         <v>59857</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47879</v>
+        <v>48826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72165</v>
+        <v>71988</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4363615673222745</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3490453160626351</v>
+        <v>0.3559456565629588</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5260940066801448</v>
+        <v>0.524802487102764</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -5708,19 +5708,19 @@
         <v>42409</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>33815</v>
+        <v>35129</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>51076</v>
+        <v>51640</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3512024970939187</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.280030748634776</v>
+        <v>0.2909180794923764</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4229779534423276</v>
+        <v>0.4276510068507069</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>119</v>
@@ -5729,19 +5729,19 @@
         <v>102265</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>87008</v>
+        <v>87683</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117752</v>
+        <v>117035</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3964925366136315</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3373398556224206</v>
+        <v>0.3399565976947962</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4565369371078673</v>
+        <v>0.453757779296496</v>
       </c>
     </row>
     <row r="19">
@@ -5833,19 +5833,19 @@
         <v>30073</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22631</v>
+        <v>22508</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>38709</v>
+        <v>38183</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.438390423301716</v>
+        <v>0.4383904233017161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3299108417415623</v>
+        <v>0.3281082801140763</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5642867499196609</v>
+        <v>0.5566266224716839</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -5854,19 +5854,19 @@
         <v>21895</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16864</v>
+        <v>16962</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>26975</v>
+        <v>26624</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5334076550400091</v>
+        <v>0.5334076550400089</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4108387442169546</v>
+        <v>0.4132172381831729</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6571461811006911</v>
+        <v>0.6486079442172002</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -5875,19 +5875,19 @@
         <v>51968</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>42949</v>
+        <v>41708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>60775</v>
+        <v>61384</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.473961933854936</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3917024853030581</v>
+        <v>0.3803916693544366</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5542848602292619</v>
+        <v>0.5598380241727695</v>
       </c>
     </row>
     <row r="21">
@@ -5904,19 +5904,19 @@
         <v>20715</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14634</v>
+        <v>14358</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29072</v>
+        <v>28093</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.301970926536193</v>
+        <v>0.3019709265361931</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2133355486723676</v>
+        <v>0.2093073440631602</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4238017993570741</v>
+        <v>0.4095249406220575</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -5925,19 +5925,19 @@
         <v>10030</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>5845</v>
+        <v>6346</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14589</v>
+        <v>15345</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.244345087719642</v>
+        <v>0.2443450877196419</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1424063940090443</v>
+        <v>0.1545972872068325</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3554252047585558</v>
+        <v>0.3738191138699667</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>40</v>
@@ -5946,19 +5946,19 @@
         <v>30744</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22630</v>
+        <v>22788</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>38765</v>
+        <v>40280</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2803975961402183</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2063939682551771</v>
+        <v>0.2078299010012046</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3535479861507592</v>
+        <v>0.3673655775412046</v>
       </c>
     </row>
     <row r="22">
@@ -5975,19 +5975,19 @@
         <v>17811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11413</v>
+        <v>11007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25799</v>
+        <v>25037</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2596386501620909</v>
+        <v>0.259638650162091</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1663721871293163</v>
+        <v>0.1604542915577209</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3760968262649309</v>
+        <v>0.3649857055213374</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>15</v>
@@ -5996,19 +5996,19 @@
         <v>9123</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5698</v>
+        <v>5296</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>14057</v>
+        <v>13676</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.222247257240349</v>
+        <v>0.2222472572403489</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1388181021796842</v>
+        <v>0.1290111417762546</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3424454097539822</v>
+        <v>0.3331637080123757</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6017,19 +6017,19 @@
         <v>26933</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19537</v>
+        <v>19038</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35666</v>
+        <v>36156</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2456404700048458</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1781811522899863</v>
+        <v>0.1736317985454011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3252832310061994</v>
+        <v>0.3297516750599059</v>
       </c>
     </row>
     <row r="23">
@@ -6121,19 +6121,19 @@
         <v>187669</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>161718</v>
+        <v>163951</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>212968</v>
+        <v>214334</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3972603252073339</v>
+        <v>0.397260325207334</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3423269755702917</v>
+        <v>0.3470534451351499</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4508142320791408</v>
+        <v>0.4537052531069058</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>225</v>
@@ -6142,19 +6142,19 @@
         <v>176990</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>378</v>
@@ -6163,19 +6163,19 @@
         <v>364659</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>334475</v>
+        <v>335602</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>394892</v>
+        <v>396302</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.4258049708390717</v>
+        <v>0.4258049708390718</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.390559618313245</v>
+        <v>0.3918756358498318</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.461107150886841</v>
+        <v>0.462753695361647</v>
       </c>
     </row>
     <row r="25">
@@ -6192,19 +6192,19 @@
         <v>130307</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>106268</v>
+        <v>108651</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>152577</v>
+        <v>151393</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2758349666804719</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2249487780092722</v>
+        <v>0.2299931013645912</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3229782005956843</v>
+        <v>0.3204700733202961</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>125</v>
@@ -6213,19 +6213,19 @@
         <v>92191</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>77963</v>
+        <v>77525</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>107854</v>
+        <v>107895</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2400849524047448</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2030325215346187</v>
+        <v>0.2018920955390861</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2808768880792885</v>
+        <v>0.2809833810782837</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>234</v>
@@ -6234,19 +6234,19 @@
         <v>222497</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>196100</v>
+        <v>196532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>250325</v>
+        <v>250504</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2598053920486217</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2289812945751445</v>
+        <v>0.2294859195333086</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2922992721052106</v>
+        <v>0.2925080868746823</v>
       </c>
     </row>
     <row r="26">
@@ -6263,19 +6263,19 @@
         <v>154432</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>131693</v>
+        <v>130553</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>181128</v>
+        <v>178633</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3269047081121942</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2787704173578103</v>
+        <v>0.2763562495408796</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3834140409892814</v>
+        <v>0.3781325136137029</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>144</v>
@@ -6284,19 +6284,19 @@
         <v>114811</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>269</v>
@@ -6305,19 +6305,19 @@
         <v>269243</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>240613</v>
+        <v>241156</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>299325</v>
+        <v>298445</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3143896371123066</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2809587318117208</v>
+        <v>0.2815931544431111</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3495149328954149</v>
+        <v>0.3484875635908848</v>
       </c>
     </row>
     <row r="27">
